--- a/RShinyApps/mydf.xlsx
+++ b/RShinyApps/mydf.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="755">
   <si>
     <t>Date</t>
   </si>
@@ -1148,6 +1148,9 @@
     <t>375</t>
   </si>
   <si>
+    <t>376</t>
+  </si>
+  <si>
     <t>1989-07</t>
   </si>
   <si>
@@ -2271,6 +2274,9 @@
   </si>
   <si>
     <t>2020-09</t>
+  </si>
+  <si>
+    <t>2020-10</t>
   </si>
 </sst>
 </file>
@@ -2338,7 +2344,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -2352,7 +2358,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C3" t="n">
         <v>7.0</v>
@@ -2366,7 +2372,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -2380,7 +2386,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -2394,7 +2400,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -2408,7 +2414,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C7" t="n">
         <v>3.0</v>
@@ -2422,13 +2428,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C8" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D8" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="9">
@@ -2436,13 +2442,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C9" t="n">
         <v>7.0</v>
       </c>
       <c r="D9" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="10">
@@ -2450,13 +2456,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C10" t="n">
         <v>9.0</v>
       </c>
       <c r="D10" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="11">
@@ -2464,13 +2470,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C11" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="D11" t="n">
-        <v>58.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="12">
@@ -2478,13 +2484,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C12" t="n">
         <v>9.0</v>
       </c>
       <c r="D12" t="n">
-        <v>67.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="13">
@@ -2492,13 +2498,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C13" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="D13" t="n">
-        <v>76.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="14">
@@ -2506,13 +2512,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C14" t="n">
         <v>4.0</v>
       </c>
       <c r="D14" t="n">
-        <v>80.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="15">
@@ -2520,13 +2526,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
       </c>
       <c r="D15" t="n">
-        <v>88.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="16">
@@ -2534,13 +2540,13 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
       </c>
       <c r="D16" t="n">
-        <v>90.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="17">
@@ -2548,13 +2554,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C17" t="n">
         <v>5.0</v>
       </c>
       <c r="D17" t="n">
-        <v>95.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="18">
@@ -2562,13 +2568,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C18" t="n">
         <v>5.0</v>
       </c>
       <c r="D18" t="n">
-        <v>100.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="19">
@@ -2576,13 +2582,13 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>100.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="20">
@@ -2590,13 +2596,13 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
       </c>
       <c r="D20" t="n">
-        <v>105.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="21">
@@ -2604,13 +2610,13 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C21" t="n">
         <v>4.0</v>
       </c>
       <c r="D21" t="n">
-        <v>109.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="22">
@@ -2618,13 +2624,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C22" t="n">
         <v>8.0</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="23">
@@ -2632,13 +2638,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C23" t="n">
         <v>5.0</v>
       </c>
       <c r="D23" t="n">
-        <v>122.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="24">
@@ -2646,13 +2652,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24" t="n">
-        <v>124.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="25">
@@ -2660,13 +2666,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C25" t="n">
         <v>5.0</v>
       </c>
       <c r="D25" t="n">
-        <v>129.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="26">
@@ -2674,13 +2680,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C26" t="n">
         <v>7.0</v>
       </c>
       <c r="D26" t="n">
-        <v>136.0</v>
+        <v>133.0</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2694,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C27" t="n">
         <v>3.0</v>
       </c>
       <c r="D27" t="n">
-        <v>139.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="28">
@@ -2702,13 +2708,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C28" t="n">
         <v>5.0</v>
       </c>
       <c r="D28" t="n">
-        <v>144.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="29">
@@ -2716,13 +2722,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C29" t="n">
         <v>3.0</v>
       </c>
       <c r="D29" t="n">
-        <v>147.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="30">
@@ -2730,13 +2736,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C30" t="n">
         <v>0.0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="31">
@@ -2744,13 +2750,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C31" t="n">
         <v>7.0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="32">
@@ -2758,13 +2764,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C32" t="n">
         <v>3.0</v>
       </c>
       <c r="D32" t="n">
-        <v>157.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="33">
@@ -2772,13 +2778,13 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C33" t="n">
         <v>2.0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.0</v>
+        <v>156.0</v>
       </c>
     </row>
     <row r="34">
@@ -2786,13 +2792,13 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C34" t="n">
         <v>9.0</v>
       </c>
       <c r="D34" t="n">
-        <v>168.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="35">
@@ -2800,13 +2806,13 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C35" t="n">
         <v>6.0</v>
       </c>
       <c r="D35" t="n">
-        <v>174.0</v>
+        <v>171.0</v>
       </c>
     </row>
     <row r="36">
@@ -2814,13 +2820,13 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C36" t="n">
         <v>5.0</v>
       </c>
       <c r="D36" t="n">
-        <v>179.0</v>
+        <v>176.0</v>
       </c>
     </row>
     <row r="37">
@@ -2828,13 +2834,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C37" t="n">
         <v>6.0</v>
       </c>
       <c r="D37" t="n">
-        <v>185.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="38">
@@ -2842,13 +2848,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C38" t="n">
         <v>3.0</v>
       </c>
       <c r="D38" t="n">
-        <v>188.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="39">
@@ -2856,13 +2862,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C39" t="n">
         <v>6.0</v>
       </c>
       <c r="D39" t="n">
-        <v>194.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="40">
@@ -2870,13 +2876,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C40" t="n">
         <v>5.0</v>
       </c>
       <c r="D40" t="n">
-        <v>199.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="41">
@@ -2884,13 +2890,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C41" t="n">
         <v>3.0</v>
       </c>
       <c r="D41" t="n">
-        <v>202.0</v>
+        <v>199.0</v>
       </c>
     </row>
     <row r="42">
@@ -2898,13 +2904,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C42" t="n">
         <v>5.0</v>
       </c>
       <c r="D42" t="n">
-        <v>207.0</v>
+        <v>204.0</v>
       </c>
     </row>
     <row r="43">
@@ -2912,13 +2918,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C43" t="n">
         <v>4.0</v>
       </c>
       <c r="D43" t="n">
-        <v>211.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="44">
@@ -2926,13 +2932,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C44" t="n">
         <v>4.0</v>
       </c>
       <c r="D44" t="n">
-        <v>215.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="45">
@@ -2940,13 +2946,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C45" t="n">
         <v>2.0</v>
       </c>
       <c r="D45" t="n">
-        <v>217.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="46">
@@ -2954,13 +2960,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C46" t="n">
         <v>3.0</v>
       </c>
       <c r="D46" t="n">
-        <v>220.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="47">
@@ -2968,13 +2974,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C47" t="n">
         <v>2.0</v>
       </c>
       <c r="D47" t="n">
-        <v>222.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="48">
@@ -2982,13 +2988,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C48" t="n">
         <v>3.0</v>
       </c>
       <c r="D48" t="n">
-        <v>225.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="49">
@@ -2996,13 +3002,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C49" t="n">
         <v>7.0</v>
       </c>
       <c r="D49" t="n">
-        <v>232.0</v>
+        <v>229.0</v>
       </c>
     </row>
     <row r="50">
@@ -3010,13 +3016,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C50" t="n">
         <v>5.0</v>
       </c>
       <c r="D50" t="n">
-        <v>237.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="51">
@@ -3024,13 +3030,13 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C51" t="n">
         <v>6.0</v>
       </c>
       <c r="D51" t="n">
-        <v>243.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="52">
@@ -3038,13 +3044,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C52" t="n">
         <v>10.0</v>
       </c>
       <c r="D52" t="n">
-        <v>253.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="53">
@@ -3052,13 +3058,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C53" t="n">
         <v>9.0</v>
       </c>
       <c r="D53" t="n">
-        <v>262.0</v>
+        <v>259.0</v>
       </c>
     </row>
     <row r="54">
@@ -3066,13 +3072,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C54" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D54" t="n">
-        <v>268.0</v>
+        <v>264.0</v>
       </c>
     </row>
     <row r="55">
@@ -3080,13 +3086,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C55" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D55" t="n">
-        <v>275.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="56">
@@ -3094,13 +3100,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C56" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="D56" t="n">
-        <v>285.0</v>
+        <v>279.0</v>
       </c>
     </row>
     <row r="57">
@@ -3108,13 +3114,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C57" t="n">
         <v>1.0</v>
       </c>
       <c r="D57" t="n">
-        <v>286.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="58">
@@ -3122,13 +3128,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C58" t="n">
         <v>11.0</v>
       </c>
       <c r="D58" t="n">
-        <v>297.0</v>
+        <v>291.0</v>
       </c>
     </row>
     <row r="59">
@@ -3136,13 +3142,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C59" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D59" t="n">
-        <v>305.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="60">
@@ -3150,13 +3156,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C60" t="n">
         <v>13.0</v>
       </c>
       <c r="D60" t="n">
-        <v>318.0</v>
+        <v>313.0</v>
       </c>
     </row>
     <row r="61">
@@ -3164,13 +3170,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C61" t="n">
         <v>8.0</v>
       </c>
       <c r="D61" t="n">
-        <v>326.0</v>
+        <v>321.0</v>
       </c>
     </row>
     <row r="62">
@@ -3178,13 +3184,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C62" t="n">
         <v>6.0</v>
       </c>
       <c r="D62" t="n">
-        <v>332.0</v>
+        <v>327.0</v>
       </c>
     </row>
     <row r="63">
@@ -3192,13 +3198,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C63" t="n">
         <v>20.0</v>
       </c>
       <c r="D63" t="n">
-        <v>352.0</v>
+        <v>347.0</v>
       </c>
     </row>
     <row r="64">
@@ -3206,13 +3212,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C64" t="n">
         <v>12.0</v>
       </c>
       <c r="D64" t="n">
-        <v>364.0</v>
+        <v>359.0</v>
       </c>
     </row>
     <row r="65">
@@ -3220,13 +3226,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C65" t="n">
         <v>14.0</v>
       </c>
       <c r="D65" t="n">
-        <v>378.0</v>
+        <v>373.0</v>
       </c>
     </row>
     <row r="66">
@@ -3234,13 +3240,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C66" t="n">
         <v>14.0</v>
       </c>
       <c r="D66" t="n">
-        <v>392.0</v>
+        <v>387.0</v>
       </c>
     </row>
     <row r="67">
@@ -3248,13 +3254,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C67" t="n">
         <v>10.0</v>
       </c>
       <c r="D67" t="n">
-        <v>402.0</v>
+        <v>397.0</v>
       </c>
     </row>
     <row r="68">
@@ -3262,13 +3268,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C68" t="n">
         <v>8.0</v>
       </c>
       <c r="D68" t="n">
-        <v>410.0</v>
+        <v>405.0</v>
       </c>
     </row>
     <row r="69">
@@ -3276,13 +3282,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C69" t="n">
         <v>16.0</v>
       </c>
       <c r="D69" t="n">
-        <v>426.0</v>
+        <v>421.0</v>
       </c>
     </row>
     <row r="70">
@@ -3290,13 +3296,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C70" t="n">
         <v>22.0</v>
       </c>
       <c r="D70" t="n">
-        <v>448.0</v>
+        <v>443.0</v>
       </c>
     </row>
     <row r="71">
@@ -3304,13 +3310,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C71" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="D71" t="n">
-        <v>465.0</v>
+        <v>458.0</v>
       </c>
     </row>
     <row r="72">
@@ -3318,13 +3324,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C72" t="n">
         <v>18.0</v>
       </c>
       <c r="D72" t="n">
-        <v>483.0</v>
+        <v>476.0</v>
       </c>
     </row>
     <row r="73">
@@ -3332,13 +3338,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C73" t="n">
         <v>11.0</v>
       </c>
       <c r="D73" t="n">
-        <v>494.0</v>
+        <v>487.0</v>
       </c>
     </row>
     <row r="74">
@@ -3346,13 +3352,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C74" t="n">
         <v>17.0</v>
       </c>
       <c r="D74" t="n">
-        <v>511.0</v>
+        <v>504.0</v>
       </c>
     </row>
     <row r="75">
@@ -3360,13 +3366,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C75" t="n">
         <v>13.0</v>
       </c>
       <c r="D75" t="n">
-        <v>524.0</v>
+        <v>517.0</v>
       </c>
     </row>
     <row r="76">
@@ -3374,13 +3380,13 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C76" t="n">
         <v>20.0</v>
       </c>
       <c r="D76" t="n">
-        <v>544.0</v>
+        <v>537.0</v>
       </c>
     </row>
     <row r="77">
@@ -3388,13 +3394,13 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C77" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="D77" t="n">
-        <v>560.0</v>
+        <v>554.0</v>
       </c>
     </row>
     <row r="78">
@@ -3402,13 +3408,13 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C78" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="D78" t="n">
-        <v>574.0</v>
+        <v>567.0</v>
       </c>
     </row>
     <row r="79">
@@ -3416,13 +3422,13 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C79" t="n">
         <v>20.0</v>
       </c>
       <c r="D79" t="n">
-        <v>594.0</v>
+        <v>587.0</v>
       </c>
     </row>
     <row r="80">
@@ -3430,13 +3436,13 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C80" t="n">
         <v>15.0</v>
       </c>
       <c r="D80" t="n">
-        <v>609.0</v>
+        <v>602.0</v>
       </c>
     </row>
     <row r="81">
@@ -3444,13 +3450,13 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C81" t="n">
         <v>12.0</v>
       </c>
       <c r="D81" t="n">
-        <v>621.0</v>
+        <v>614.0</v>
       </c>
     </row>
     <row r="82">
@@ -3458,13 +3464,13 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C82" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="D82" t="n">
-        <v>644.0</v>
+        <v>636.0</v>
       </c>
     </row>
     <row r="83">
@@ -3472,13 +3478,13 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C83" t="n">
         <v>29.0</v>
       </c>
       <c r="D83" t="n">
-        <v>673.0</v>
+        <v>665.0</v>
       </c>
     </row>
     <row r="84">
@@ -3486,13 +3492,13 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C84" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="D84" t="n">
-        <v>707.0</v>
+        <v>698.0</v>
       </c>
     </row>
     <row r="85">
@@ -3500,13 +3506,13 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C85" t="n">
         <v>15.0</v>
       </c>
       <c r="D85" t="n">
-        <v>722.0</v>
+        <v>713.0</v>
       </c>
     </row>
     <row r="86">
@@ -3514,13 +3520,13 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C86" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="D86" t="n">
-        <v>752.0</v>
+        <v>742.0</v>
       </c>
     </row>
     <row r="87">
@@ -3528,13 +3534,13 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C87" t="n">
         <v>26.0</v>
       </c>
       <c r="D87" t="n">
-        <v>778.0</v>
+        <v>768.0</v>
       </c>
     </row>
     <row r="88">
@@ -3542,13 +3548,13 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C88" t="n">
         <v>21.0</v>
       </c>
       <c r="D88" t="n">
-        <v>799.0</v>
+        <v>789.0</v>
       </c>
     </row>
     <row r="89">
@@ -3556,13 +3562,13 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C89" t="n">
         <v>36.0</v>
       </c>
       <c r="D89" t="n">
-        <v>835.0</v>
+        <v>825.0</v>
       </c>
     </row>
     <row r="90">
@@ -3570,13 +3576,13 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C90" t="n">
         <v>23.0</v>
       </c>
       <c r="D90" t="n">
-        <v>858.0</v>
+        <v>848.0</v>
       </c>
     </row>
     <row r="91">
@@ -3584,13 +3590,13 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C91" t="n">
         <v>24.0</v>
       </c>
       <c r="D91" t="n">
-        <v>882.0</v>
+        <v>872.0</v>
       </c>
     </row>
     <row r="92">
@@ -3598,13 +3604,13 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C92" t="n">
         <v>30.0</v>
       </c>
       <c r="D92" t="n">
-        <v>912.0</v>
+        <v>902.0</v>
       </c>
     </row>
     <row r="93">
@@ -3612,13 +3618,13 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C93" t="n">
         <v>24.0</v>
       </c>
       <c r="D93" t="n">
-        <v>936.0</v>
+        <v>926.0</v>
       </c>
     </row>
     <row r="94">
@@ -3626,13 +3632,13 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C94" t="n">
         <v>36.0</v>
       </c>
       <c r="D94" t="n">
-        <v>972.0</v>
+        <v>962.0</v>
       </c>
     </row>
     <row r="95">
@@ -3640,13 +3646,13 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C95" t="n">
         <v>28.0</v>
       </c>
       <c r="D95" t="n">
-        <v>1000.0</v>
+        <v>990.0</v>
       </c>
     </row>
     <row r="96">
@@ -3654,13 +3660,13 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C96" t="n">
         <v>25.0</v>
       </c>
       <c r="D96" t="n">
-        <v>1025.0</v>
+        <v>1015.0</v>
       </c>
     </row>
     <row r="97">
@@ -3668,13 +3674,13 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C97" t="n">
         <v>28.0</v>
       </c>
       <c r="D97" t="n">
-        <v>1053.0</v>
+        <v>1043.0</v>
       </c>
     </row>
     <row r="98">
@@ -3682,13 +3688,13 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C98" t="n">
         <v>46.0</v>
       </c>
       <c r="D98" t="n">
-        <v>1099.0</v>
+        <v>1089.0</v>
       </c>
     </row>
     <row r="99">
@@ -3696,13 +3702,13 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C99" t="n">
         <v>28.0</v>
       </c>
       <c r="D99" t="n">
-        <v>1127.0</v>
+        <v>1117.0</v>
       </c>
     </row>
     <row r="100">
@@ -3710,13 +3716,13 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C100" t="n">
         <v>29.0</v>
       </c>
       <c r="D100" t="n">
-        <v>1156.0</v>
+        <v>1146.0</v>
       </c>
     </row>
     <row r="101">
@@ -3724,13 +3730,13 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C101" t="n">
         <v>28.0</v>
       </c>
       <c r="D101" t="n">
-        <v>1184.0</v>
+        <v>1174.0</v>
       </c>
     </row>
     <row r="102">
@@ -3738,13 +3744,13 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C102" t="n">
         <v>20.0</v>
       </c>
       <c r="D102" t="n">
-        <v>1204.0</v>
+        <v>1194.0</v>
       </c>
     </row>
     <row r="103">
@@ -3752,13 +3758,13 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C103" t="n">
         <v>23.0</v>
       </c>
       <c r="D103" t="n">
-        <v>1227.0</v>
+        <v>1217.0</v>
       </c>
     </row>
     <row r="104">
@@ -3766,13 +3772,13 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C104" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="D104" t="n">
-        <v>1249.0</v>
+        <v>1241.0</v>
       </c>
     </row>
     <row r="105">
@@ -3780,13 +3786,13 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C105" t="n">
         <v>29.0</v>
       </c>
       <c r="D105" t="n">
-        <v>1278.0</v>
+        <v>1270.0</v>
       </c>
     </row>
     <row r="106">
@@ -3794,13 +3800,13 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C106" t="n">
         <v>37.0</v>
       </c>
       <c r="D106" t="n">
-        <v>1315.0</v>
+        <v>1307.0</v>
       </c>
     </row>
     <row r="107">
@@ -3808,13 +3814,13 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C107" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="D107" t="n">
-        <v>1345.0</v>
+        <v>1338.0</v>
       </c>
     </row>
     <row r="108">
@@ -3822,13 +3828,13 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C108" t="n">
         <v>23.0</v>
       </c>
       <c r="D108" t="n">
-        <v>1368.0</v>
+        <v>1361.0</v>
       </c>
     </row>
     <row r="109">
@@ -3836,13 +3842,13 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C109" t="n">
         <v>29.0</v>
       </c>
       <c r="D109" t="n">
-        <v>1397.0</v>
+        <v>1390.0</v>
       </c>
     </row>
     <row r="110">
@@ -3850,13 +3856,13 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C110" t="n">
         <v>30.0</v>
       </c>
       <c r="D110" t="n">
-        <v>1427.0</v>
+        <v>1420.0</v>
       </c>
     </row>
     <row r="111">
@@ -3864,13 +3870,13 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C111" t="n">
         <v>21.0</v>
       </c>
       <c r="D111" t="n">
-        <v>1448.0</v>
+        <v>1441.0</v>
       </c>
     </row>
     <row r="112">
@@ -3878,13 +3884,13 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C112" t="n">
         <v>24.0</v>
       </c>
       <c r="D112" t="n">
-        <v>1472.0</v>
+        <v>1465.0</v>
       </c>
     </row>
     <row r="113">
@@ -3892,13 +3898,13 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C113" t="n">
         <v>41.0</v>
       </c>
       <c r="D113" t="n">
-        <v>1513.0</v>
+        <v>1506.0</v>
       </c>
     </row>
     <row r="114">
@@ -3906,13 +3912,13 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C114" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="D114" t="n">
-        <v>1535.0</v>
+        <v>1529.0</v>
       </c>
     </row>
     <row r="115">
@@ -3920,13 +3926,13 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C115" t="n">
         <v>35.0</v>
       </c>
       <c r="D115" t="n">
-        <v>1570.0</v>
+        <v>1564.0</v>
       </c>
     </row>
     <row r="116">
@@ -3934,13 +3940,13 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C116" t="n">
         <v>25.0</v>
       </c>
       <c r="D116" t="n">
-        <v>1595.0</v>
+        <v>1589.0</v>
       </c>
     </row>
     <row r="117">
@@ -3948,13 +3954,13 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C117" t="n">
         <v>34.0</v>
       </c>
       <c r="D117" t="n">
-        <v>1629.0</v>
+        <v>1623.0</v>
       </c>
     </row>
     <row r="118">
@@ -3962,13 +3968,13 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C118" t="n">
         <v>32.0</v>
       </c>
       <c r="D118" t="n">
-        <v>1661.0</v>
+        <v>1655.0</v>
       </c>
     </row>
     <row r="119">
@@ -3976,13 +3982,13 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C119" t="n">
         <v>24.0</v>
       </c>
       <c r="D119" t="n">
-        <v>1685.0</v>
+        <v>1679.0</v>
       </c>
     </row>
     <row r="120">
@@ -3990,13 +3996,13 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C120" t="n">
         <v>35.0</v>
       </c>
       <c r="D120" t="n">
-        <v>1720.0</v>
+        <v>1714.0</v>
       </c>
     </row>
     <row r="121">
@@ -4004,13 +4010,13 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C121" t="n">
         <v>42.0</v>
       </c>
       <c r="D121" t="n">
-        <v>1762.0</v>
+        <v>1756.0</v>
       </c>
     </row>
     <row r="122">
@@ -4018,13 +4024,13 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C122" t="n">
         <v>50.0</v>
       </c>
       <c r="D122" t="n">
-        <v>1812.0</v>
+        <v>1806.0</v>
       </c>
     </row>
     <row r="123">
@@ -4032,13 +4038,13 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C123" t="n">
         <v>43.0</v>
       </c>
       <c r="D123" t="n">
-        <v>1855.0</v>
+        <v>1849.0</v>
       </c>
     </row>
     <row r="124">
@@ -4046,13 +4052,13 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C124" t="n">
         <v>26.0</v>
       </c>
       <c r="D124" t="n">
-        <v>1881.0</v>
+        <v>1875.0</v>
       </c>
     </row>
     <row r="125">
@@ -4060,13 +4066,13 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C125" t="n">
         <v>37.0</v>
       </c>
       <c r="D125" t="n">
-        <v>1918.0</v>
+        <v>1912.0</v>
       </c>
     </row>
     <row r="126">
@@ -4074,13 +4080,13 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C126" t="n">
         <v>33.0</v>
       </c>
       <c r="D126" t="n">
-        <v>1951.0</v>
+        <v>1945.0</v>
       </c>
     </row>
     <row r="127">
@@ -4088,13 +4094,13 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C127" t="n">
         <v>35.0</v>
       </c>
       <c r="D127" t="n">
-        <v>1986.0</v>
+        <v>1980.0</v>
       </c>
     </row>
     <row r="128">
@@ -4102,13 +4108,13 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C128" t="n">
         <v>73.0</v>
       </c>
       <c r="D128" t="n">
-        <v>2059.0</v>
+        <v>2053.0</v>
       </c>
     </row>
     <row r="129">
@@ -4116,13 +4122,13 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C129" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="D129" t="n">
-        <v>2116.0</v>
+        <v>2111.0</v>
       </c>
     </row>
     <row r="130">
@@ -4130,13 +4136,13 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C130" t="n">
-        <v>99.0</v>
+        <v>101.0</v>
       </c>
       <c r="D130" t="n">
-        <v>2215.0</v>
+        <v>2212.0</v>
       </c>
     </row>
     <row r="131">
@@ -4144,13 +4150,13 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C131" t="n">
         <v>63.0</v>
       </c>
       <c r="D131" t="n">
-        <v>2278.0</v>
+        <v>2275.0</v>
       </c>
     </row>
     <row r="132">
@@ -4158,13 +4164,13 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C132" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="D132" t="n">
-        <v>2347.0</v>
+        <v>2345.0</v>
       </c>
     </row>
     <row r="133">
@@ -4172,13 +4178,13 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C133" t="n">
         <v>66.0</v>
       </c>
       <c r="D133" t="n">
-        <v>2413.0</v>
+        <v>2411.0</v>
       </c>
     </row>
     <row r="134">
@@ -4186,13 +4192,13 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C134" t="n">
         <v>64.0</v>
       </c>
       <c r="D134" t="n">
-        <v>2477.0</v>
+        <v>2475.0</v>
       </c>
     </row>
     <row r="135">
@@ -4200,13 +4206,13 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C135" t="n">
         <v>82.0</v>
       </c>
       <c r="D135" t="n">
-        <v>2559.0</v>
+        <v>2557.0</v>
       </c>
     </row>
     <row r="136">
@@ -4214,13 +4220,13 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C136" t="n">
         <v>66.0</v>
       </c>
       <c r="D136" t="n">
-        <v>2625.0</v>
+        <v>2623.0</v>
       </c>
     </row>
     <row r="137">
@@ -4228,13 +4234,13 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C137" t="n">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="D137" t="n">
-        <v>2718.0</v>
+        <v>2717.0</v>
       </c>
     </row>
     <row r="138">
@@ -4242,10 +4248,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C138" t="n">
-        <v>109.0</v>
+        <v>110.0</v>
       </c>
       <c r="D138" t="n">
         <v>2827.0</v>
@@ -4256,13 +4262,13 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C139" t="n">
-        <v>111.0</v>
+        <v>112.0</v>
       </c>
       <c r="D139" t="n">
-        <v>2938.0</v>
+        <v>2939.0</v>
       </c>
     </row>
     <row r="140">
@@ -4270,13 +4276,13 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C140" t="n">
         <v>140.0</v>
       </c>
       <c r="D140" t="n">
-        <v>3078.0</v>
+        <v>3079.0</v>
       </c>
     </row>
     <row r="141">
@@ -4284,13 +4290,13 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C141" t="n">
-        <v>124.0</v>
+        <v>126.0</v>
       </c>
       <c r="D141" t="n">
-        <v>3202.0</v>
+        <v>3205.0</v>
       </c>
     </row>
     <row r="142">
@@ -4298,13 +4304,13 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C142" t="n">
-        <v>124.0</v>
+        <v>125.0</v>
       </c>
       <c r="D142" t="n">
-        <v>3326.0</v>
+        <v>3330.0</v>
       </c>
     </row>
     <row r="143">
@@ -4312,13 +4318,13 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C143" t="n">
-        <v>142.0</v>
+        <v>141.0</v>
       </c>
       <c r="D143" t="n">
-        <v>3468.0</v>
+        <v>3471.0</v>
       </c>
     </row>
     <row r="144">
@@ -4326,13 +4332,13 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C144" t="n">
         <v>121.0</v>
       </c>
       <c r="D144" t="n">
-        <v>3589.0</v>
+        <v>3592.0</v>
       </c>
     </row>
     <row r="145">
@@ -4340,13 +4346,13 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C145" t="n">
         <v>120.0</v>
       </c>
       <c r="D145" t="n">
-        <v>3709.0</v>
+        <v>3712.0</v>
       </c>
     </row>
     <row r="146">
@@ -4354,13 +4360,13 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C146" t="n">
-        <v>145.0</v>
+        <v>144.0</v>
       </c>
       <c r="D146" t="n">
-        <v>3854.0</v>
+        <v>3856.0</v>
       </c>
     </row>
     <row r="147">
@@ -4368,13 +4374,13 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C147" t="n">
-        <v>151.0</v>
+        <v>153.0</v>
       </c>
       <c r="D147" t="n">
-        <v>4005.0</v>
+        <v>4009.0</v>
       </c>
     </row>
     <row r="148">
@@ -4382,13 +4388,13 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C148" t="n">
-        <v>124.0</v>
+        <v>125.0</v>
       </c>
       <c r="D148" t="n">
-        <v>4129.0</v>
+        <v>4134.0</v>
       </c>
     </row>
     <row r="149">
@@ -4396,13 +4402,13 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C149" t="n">
         <v>401.0</v>
       </c>
       <c r="D149" t="n">
-        <v>4530.0</v>
+        <v>4535.0</v>
       </c>
     </row>
     <row r="150">
@@ -4410,13 +4416,13 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C150" t="n">
-        <v>145.0</v>
+        <v>146.0</v>
       </c>
       <c r="D150" t="n">
-        <v>4675.0</v>
+        <v>4681.0</v>
       </c>
     </row>
     <row r="151">
@@ -4424,13 +4430,13 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C151" t="n">
         <v>155.0</v>
       </c>
       <c r="D151" t="n">
-        <v>4830.0</v>
+        <v>4836.0</v>
       </c>
     </row>
     <row r="152">
@@ -4438,13 +4444,13 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C152" t="n">
-        <v>353.0</v>
+        <v>357.0</v>
       </c>
       <c r="D152" t="n">
-        <v>5183.0</v>
+        <v>5193.0</v>
       </c>
     </row>
     <row r="153">
@@ -4452,13 +4458,13 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C153" t="n">
         <v>233.0</v>
       </c>
       <c r="D153" t="n">
-        <v>5416.0</v>
+        <v>5426.0</v>
       </c>
     </row>
     <row r="154">
@@ -4466,13 +4472,13 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C154" t="n">
-        <v>251.0</v>
+        <v>252.0</v>
       </c>
       <c r="D154" t="n">
-        <v>5667.0</v>
+        <v>5678.0</v>
       </c>
     </row>
     <row r="155">
@@ -4480,13 +4486,13 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C155" t="n">
-        <v>340.0</v>
+        <v>338.0</v>
       </c>
       <c r="D155" t="n">
-        <v>6007.0</v>
+        <v>6016.0</v>
       </c>
     </row>
     <row r="156">
@@ -4494,13 +4500,13 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C156" t="n">
-        <v>359.0</v>
+        <v>361.0</v>
       </c>
       <c r="D156" t="n">
-        <v>6366.0</v>
+        <v>6377.0</v>
       </c>
     </row>
     <row r="157">
@@ -4508,13 +4514,13 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C157" t="n">
         <v>256.0</v>
       </c>
       <c r="D157" t="n">
-        <v>6622.0</v>
+        <v>6633.0</v>
       </c>
     </row>
     <row r="158">
@@ -4522,13 +4528,13 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C158" t="n">
         <v>269.0</v>
       </c>
       <c r="D158" t="n">
-        <v>6891.0</v>
+        <v>6902.0</v>
       </c>
     </row>
     <row r="159">
@@ -4536,13 +4542,13 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C159" t="n">
-        <v>211.0</v>
+        <v>212.0</v>
       </c>
       <c r="D159" t="n">
-        <v>7102.0</v>
+        <v>7114.0</v>
       </c>
     </row>
     <row r="160">
@@ -4550,13 +4556,13 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C160" t="n">
         <v>255.0</v>
       </c>
       <c r="D160" t="n">
-        <v>7357.0</v>
+        <v>7369.0</v>
       </c>
     </row>
     <row r="161">
@@ -4564,13 +4570,13 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C161" t="n">
-        <v>360.0</v>
+        <v>366.0</v>
       </c>
       <c r="D161" t="n">
-        <v>7717.0</v>
+        <v>7735.0</v>
       </c>
     </row>
     <row r="162">
@@ -4578,13 +4584,13 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C162" t="n">
-        <v>316.0</v>
+        <v>318.0</v>
       </c>
       <c r="D162" t="n">
-        <v>8033.0</v>
+        <v>8053.0</v>
       </c>
     </row>
     <row r="163">
@@ -4592,13 +4598,13 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C163" t="n">
-        <v>427.0</v>
+        <v>429.0</v>
       </c>
       <c r="D163" t="n">
-        <v>8460.0</v>
+        <v>8482.0</v>
       </c>
     </row>
     <row r="164">
@@ -4606,13 +4612,13 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C164" t="n">
-        <v>1091.0</v>
+        <v>1097.0</v>
       </c>
       <c r="D164" t="n">
-        <v>9551.0</v>
+        <v>9579.0</v>
       </c>
     </row>
     <row r="165">
@@ -4620,13 +4626,13 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C165" t="n">
-        <v>844.0</v>
+        <v>853.0</v>
       </c>
       <c r="D165" t="n">
-        <v>10395.0</v>
+        <v>10432.0</v>
       </c>
     </row>
     <row r="166">
@@ -4634,13 +4640,13 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C166" t="n">
-        <v>1180.0</v>
+        <v>1181.0</v>
       </c>
       <c r="D166" t="n">
-        <v>11575.0</v>
+        <v>11613.0</v>
       </c>
     </row>
     <row r="167">
@@ -4648,13 +4654,13 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C167" t="n">
-        <v>1807.0</v>
+        <v>1812.0</v>
       </c>
       <c r="D167" t="n">
-        <v>13382.0</v>
+        <v>13425.0</v>
       </c>
     </row>
     <row r="168">
@@ -4662,13 +4668,13 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C168" t="n">
-        <v>1319.0</v>
+        <v>1322.0</v>
       </c>
       <c r="D168" t="n">
-        <v>14701.0</v>
+        <v>14747.0</v>
       </c>
     </row>
     <row r="169">
@@ -4676,13 +4682,13 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C169" t="n">
-        <v>2237.0</v>
+        <v>2243.0</v>
       </c>
       <c r="D169" t="n">
-        <v>16938.0</v>
+        <v>16990.0</v>
       </c>
     </row>
     <row r="170">
@@ -4690,13 +4696,13 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C170" t="n">
-        <v>2280.0</v>
+        <v>2288.0</v>
       </c>
       <c r="D170" t="n">
-        <v>19218.0</v>
+        <v>19278.0</v>
       </c>
     </row>
     <row r="171">
@@ -4704,13 +4710,13 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C171" t="n">
-        <v>2722.0</v>
+        <v>2728.0</v>
       </c>
       <c r="D171" t="n">
-        <v>21940.0</v>
+        <v>22006.0</v>
       </c>
     </row>
     <row r="172">
@@ -4718,13 +4724,13 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C172" t="n">
-        <v>4154.0</v>
+        <v>4157.0</v>
       </c>
       <c r="D172" t="n">
-        <v>26094.0</v>
+        <v>26163.0</v>
       </c>
     </row>
     <row r="173">
@@ -4732,13 +4738,13 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C173" t="n">
-        <v>5080.0</v>
+        <v>5085.0</v>
       </c>
       <c r="D173" t="n">
-        <v>31174.0</v>
+        <v>31248.0</v>
       </c>
     </row>
     <row r="174">
@@ -4746,13 +4752,13 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C174" t="n">
-        <v>5645.0</v>
+        <v>5659.0</v>
       </c>
       <c r="D174" t="n">
-        <v>36819.0</v>
+        <v>36907.0</v>
       </c>
     </row>
     <row r="175">
@@ -4760,13 +4766,13 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C175" t="n">
-        <v>8721.0</v>
+        <v>8922.0</v>
       </c>
       <c r="D175" t="n">
-        <v>45540.0</v>
+        <v>45829.0</v>
       </c>
     </row>
     <row r="176">
@@ -4774,13 +4780,13 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C176" t="n">
-        <v>16173.0</v>
+        <v>16455.0</v>
       </c>
       <c r="D176" t="n">
-        <v>61713.0</v>
+        <v>62284.0</v>
       </c>
     </row>
     <row r="177">
@@ -4788,13 +4794,13 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C177" t="n">
-        <v>16590.0</v>
+        <v>16476.0</v>
       </c>
       <c r="D177" t="n">
-        <v>78303.0</v>
+        <v>78760.0</v>
       </c>
     </row>
     <row r="178">
@@ -4802,13 +4808,13 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C178" t="n">
-        <v>19031.0</v>
+        <v>19061.0</v>
       </c>
       <c r="D178" t="n">
-        <v>97334.0</v>
+        <v>97821.0</v>
       </c>
     </row>
     <row r="179">
@@ -4816,13 +4822,13 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C179" t="n">
-        <v>17080.0</v>
+        <v>17371.0</v>
       </c>
       <c r="D179" t="n">
-        <v>114414.0</v>
+        <v>115192.0</v>
       </c>
     </row>
     <row r="180">
@@ -4830,13 +4836,13 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C180" t="n">
-        <v>16131.0</v>
+        <v>15853.0</v>
       </c>
       <c r="D180" t="n">
-        <v>130545.0</v>
+        <v>131045.0</v>
       </c>
     </row>
     <row r="181">
@@ -4844,13 +4850,13 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C181" t="n">
-        <v>17996.0</v>
+        <v>17945.0</v>
       </c>
       <c r="D181" t="n">
-        <v>148541.0</v>
+        <v>148990.0</v>
       </c>
     </row>
     <row r="182">
@@ -4858,13 +4864,13 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C182" t="n">
-        <v>18088.0</v>
+        <v>18264.0</v>
       </c>
       <c r="D182" t="n">
-        <v>166629.0</v>
+        <v>167254.0</v>
       </c>
     </row>
     <row r="183">
@@ -4872,13 +4878,13 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C183" t="n">
-        <v>17772.0</v>
+        <v>17595.0</v>
       </c>
       <c r="D183" t="n">
-        <v>184401.0</v>
+        <v>184849.0</v>
       </c>
     </row>
     <row r="184">
@@ -4886,13 +4892,13 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C184" t="n">
-        <v>18374.0</v>
+        <v>18329.0</v>
       </c>
       <c r="D184" t="n">
-        <v>202775.0</v>
+        <v>203178.0</v>
       </c>
     </row>
     <row r="185">
@@ -4900,13 +4906,13 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C185" t="n">
-        <v>21218.0</v>
+        <v>21464.0</v>
       </c>
       <c r="D185" t="n">
-        <v>223993.0</v>
+        <v>224642.0</v>
       </c>
     </row>
     <row r="186">
@@ -4914,13 +4920,13 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C186" t="n">
-        <v>19275.0</v>
+        <v>19235.0</v>
       </c>
       <c r="D186" t="n">
-        <v>243268.0</v>
+        <v>243877.0</v>
       </c>
     </row>
     <row r="187">
@@ -4928,13 +4934,13 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C187" t="n">
-        <v>17259.0</v>
+        <v>17115.0</v>
       </c>
       <c r="D187" t="n">
-        <v>260527.0</v>
+        <v>260992.0</v>
       </c>
     </row>
     <row r="188">
@@ -4942,13 +4948,13 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C188" t="n">
-        <v>19893.0</v>
+        <v>20139.0</v>
       </c>
       <c r="D188" t="n">
-        <v>280420.0</v>
+        <v>281131.0</v>
       </c>
     </row>
     <row r="189">
@@ -4956,13 +4962,13 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C189" t="n">
-        <v>18061.0</v>
+        <v>17921.0</v>
       </c>
       <c r="D189" t="n">
-        <v>298481.0</v>
+        <v>299052.0</v>
       </c>
     </row>
     <row r="190">
@@ -4970,13 +4976,13 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C190" t="n">
-        <v>23886.0</v>
+        <v>23611.0</v>
       </c>
       <c r="D190" t="n">
-        <v>322367.0</v>
+        <v>322663.0</v>
       </c>
     </row>
     <row r="191">
@@ -4984,13 +4990,13 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C191" t="n">
-        <v>19664.0</v>
+        <v>20287.0</v>
       </c>
       <c r="D191" t="n">
-        <v>342031.0</v>
+        <v>342950.0</v>
       </c>
     </row>
     <row r="192">
@@ -4998,13 +5004,13 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C192" t="n">
-        <v>18152.0</v>
+        <v>17821.0</v>
       </c>
       <c r="D192" t="n">
-        <v>360183.0</v>
+        <v>360771.0</v>
       </c>
     </row>
     <row r="193">
@@ -5012,13 +5018,13 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C193" t="n">
-        <v>17774.0</v>
+        <v>17682.0</v>
       </c>
       <c r="D193" t="n">
-        <v>377957.0</v>
+        <v>378453.0</v>
       </c>
     </row>
     <row r="194">
@@ -5026,13 +5032,13 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C194" t="n">
-        <v>17467.0</v>
+        <v>17724.0</v>
       </c>
       <c r="D194" t="n">
-        <v>395424.0</v>
+        <v>396177.0</v>
       </c>
     </row>
     <row r="195">
@@ -5040,13 +5046,13 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C195" t="n">
-        <v>19882.0</v>
+        <v>19731.0</v>
       </c>
       <c r="D195" t="n">
-        <v>415306.0</v>
+        <v>415908.0</v>
       </c>
     </row>
     <row r="196">
@@ -5054,13 +5060,13 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C196" t="n">
-        <v>21995.0</v>
+        <v>21747.0</v>
       </c>
       <c r="D196" t="n">
-        <v>437301.0</v>
+        <v>437655.0</v>
       </c>
     </row>
     <row r="197">
@@ -5068,13 +5074,13 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C197" t="n">
-        <v>23096.0</v>
+        <v>23507.0</v>
       </c>
       <c r="D197" t="n">
-        <v>460397.0</v>
+        <v>461162.0</v>
       </c>
     </row>
     <row r="198">
@@ -5082,13 +5088,13 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C198" t="n">
-        <v>20228.0</v>
+        <v>19942.0</v>
       </c>
       <c r="D198" t="n">
-        <v>480625.0</v>
+        <v>481104.0</v>
       </c>
     </row>
     <row r="199">
@@ -5096,13 +5102,13 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C199" t="n">
-        <v>16502.0</v>
+        <v>16354.0</v>
       </c>
       <c r="D199" t="n">
-        <v>497127.0</v>
+        <v>497458.0</v>
       </c>
     </row>
     <row r="200">
@@ -5110,13 +5116,13 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C200" t="n">
-        <v>19890.0</v>
+        <v>20050.0</v>
       </c>
       <c r="D200" t="n">
-        <v>517017.0</v>
+        <v>517508.0</v>
       </c>
     </row>
     <row r="201">
@@ -5124,13 +5130,13 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C201" t="n">
-        <v>20595.0</v>
+        <v>20510.0</v>
       </c>
       <c r="D201" t="n">
-        <v>537612.0</v>
+        <v>538018.0</v>
       </c>
     </row>
     <row r="202">
@@ -5138,13 +5144,13 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C202" t="n">
-        <v>22267.0</v>
+        <v>22161.0</v>
       </c>
       <c r="D202" t="n">
-        <v>559879.0</v>
+        <v>560179.0</v>
       </c>
     </row>
     <row r="203">
@@ -5152,13 +5158,13 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C203" t="n">
-        <v>18950.0</v>
+        <v>19343.0</v>
       </c>
       <c r="D203" t="n">
-        <v>578829.0</v>
+        <v>579522.0</v>
       </c>
     </row>
     <row r="204">
@@ -5166,13 +5172,13 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C204" t="n">
-        <v>19708.0</v>
+        <v>19638.0</v>
       </c>
       <c r="D204" t="n">
-        <v>598537.0</v>
+        <v>599160.0</v>
       </c>
     </row>
     <row r="205">
@@ -5180,13 +5186,13 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C205" t="n">
-        <v>18570.0</v>
+        <v>18304.0</v>
       </c>
       <c r="D205" t="n">
-        <v>617107.0</v>
+        <v>617464.0</v>
       </c>
     </row>
     <row r="206">
@@ -5194,13 +5200,13 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C206" t="n">
-        <v>19412.0</v>
+        <v>19680.0</v>
       </c>
       <c r="D206" t="n">
-        <v>636519.0</v>
+        <v>637144.0</v>
       </c>
     </row>
     <row r="207">
@@ -5208,13 +5214,13 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C207" t="n">
-        <v>21106.0</v>
+        <v>20946.0</v>
       </c>
       <c r="D207" t="n">
-        <v>657625.0</v>
+        <v>658090.0</v>
       </c>
     </row>
     <row r="208">
@@ -5222,13 +5228,13 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C208" t="n">
-        <v>19055.0</v>
+        <v>18911.0</v>
       </c>
       <c r="D208" t="n">
-        <v>676680.0</v>
+        <v>677001.0</v>
       </c>
     </row>
     <row r="209">
@@ -5236,13 +5242,13 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C209" t="n">
-        <v>22510.0</v>
+        <v>22728.0</v>
       </c>
       <c r="D209" t="n">
-        <v>699190.0</v>
+        <v>699729.0</v>
       </c>
     </row>
     <row r="210">
@@ -5250,13 +5256,13 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C210" t="n">
-        <v>19981.0</v>
+        <v>19679.0</v>
       </c>
       <c r="D210" t="n">
-        <v>719171.0</v>
+        <v>719408.0</v>
       </c>
     </row>
     <row r="211">
@@ -5264,13 +5270,13 @@
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C211" t="n">
-        <v>17162.0</v>
+        <v>17355.0</v>
       </c>
       <c r="D211" t="n">
-        <v>736333.0</v>
+        <v>736763.0</v>
       </c>
     </row>
     <row r="212">
@@ -5278,13 +5284,13 @@
         <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C212" t="n">
-        <v>24054.0</v>
+        <v>24701.0</v>
       </c>
       <c r="D212" t="n">
-        <v>760387.0</v>
+        <v>761464.0</v>
       </c>
     </row>
     <row r="213">
@@ -5292,13 +5298,13 @@
         <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C213" t="n">
-        <v>20810.0</v>
+        <v>19958.0</v>
       </c>
       <c r="D213" t="n">
-        <v>781197.0</v>
+        <v>781422.0</v>
       </c>
     </row>
     <row r="214">
@@ -5306,13 +5312,13 @@
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C214" t="n">
-        <v>25614.0</v>
+        <v>25932.0</v>
       </c>
       <c r="D214" t="n">
-        <v>806811.0</v>
+        <v>807354.0</v>
       </c>
     </row>
     <row r="215">
@@ -5320,13 +5326,13 @@
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C215" t="n">
-        <v>24727.0</v>
+        <v>25560.0</v>
       </c>
       <c r="D215" t="n">
-        <v>831538.0</v>
+        <v>832914.0</v>
       </c>
     </row>
     <row r="216">
@@ -5334,13 +5340,13 @@
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C216" t="n">
-        <v>27042.0</v>
+        <v>26599.0</v>
       </c>
       <c r="D216" t="n">
-        <v>858580.0</v>
+        <v>859513.0</v>
       </c>
     </row>
     <row r="217">
@@ -5348,13 +5354,13 @@
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C217" t="n">
-        <v>25032.0</v>
+        <v>24573.0</v>
       </c>
       <c r="D217" t="n">
-        <v>883612.0</v>
+        <v>884086.0</v>
       </c>
     </row>
     <row r="218">
@@ -5362,13 +5368,13 @@
         <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C218" t="n">
-        <v>27437.0</v>
+        <v>28233.0</v>
       </c>
       <c r="D218" t="n">
-        <v>911049.0</v>
+        <v>912319.0</v>
       </c>
     </row>
     <row r="219">
@@ -5376,13 +5382,13 @@
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C219" t="n">
-        <v>32325.0</v>
+        <v>32002.0</v>
       </c>
       <c r="D219" t="n">
-        <v>943374.0</v>
+        <v>944321.0</v>
       </c>
     </row>
     <row r="220">
@@ -5390,13 +5396,13 @@
         <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C220" t="n">
-        <v>31339.0</v>
+        <v>30830.0</v>
       </c>
       <c r="D220" t="n">
-        <v>974713.0</v>
+        <v>975151.0</v>
       </c>
     </row>
     <row r="221">
@@ -5404,13 +5410,13 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C221" t="n">
-        <v>45080.0</v>
+        <v>45920.0</v>
       </c>
       <c r="D221" t="n">
-        <v>1019793.0</v>
+        <v>1021071.0</v>
       </c>
     </row>
     <row r="222">
@@ -5418,13 +5424,13 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C222" t="n">
-        <v>42945.0</v>
+        <v>42063.0</v>
       </c>
       <c r="D222" t="n">
-        <v>1062738.0</v>
+        <v>1063134.0</v>
       </c>
     </row>
     <row r="223">
@@ -5432,13 +5438,13 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C223" t="n">
-        <v>20914.0</v>
+        <v>20916.0</v>
       </c>
       <c r="D223" t="n">
-        <v>1083652.0</v>
+        <v>1084050.0</v>
       </c>
     </row>
     <row r="224">
@@ -5446,13 +5452,13 @@
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C224" t="n">
-        <v>28885.0</v>
+        <v>29604.0</v>
       </c>
       <c r="D224" t="n">
-        <v>1112537.0</v>
+        <v>1113654.0</v>
       </c>
     </row>
     <row r="225">
@@ -5460,13 +5466,13 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C225" t="n">
-        <v>28499.0</v>
+        <v>28177.0</v>
       </c>
       <c r="D225" t="n">
-        <v>1141036.0</v>
+        <v>1141831.0</v>
       </c>
     </row>
     <row r="226">
@@ -5474,13 +5480,13 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C226" t="n">
-        <v>28179.0</v>
+        <v>27862.0</v>
       </c>
       <c r="D226" t="n">
-        <v>1169215.0</v>
+        <v>1169693.0</v>
       </c>
     </row>
     <row r="227">
@@ -5488,13 +5494,13 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C227" t="n">
-        <v>30670.0</v>
+        <v>31855.0</v>
       </c>
       <c r="D227" t="n">
-        <v>1199885.0</v>
+        <v>1201548.0</v>
       </c>
     </row>
     <row r="228">
@@ -5502,13 +5508,13 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C228" t="n">
-        <v>28832.0</v>
+        <v>28092.0</v>
       </c>
       <c r="D228" t="n">
-        <v>1228717.0</v>
+        <v>1229640.0</v>
       </c>
     </row>
     <row r="229">
@@ -5516,13 +5522,13 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C229" t="n">
-        <v>26284.0</v>
+        <v>25882.0</v>
       </c>
       <c r="D229" t="n">
-        <v>1255001.0</v>
+        <v>1255522.0</v>
       </c>
     </row>
     <row r="230">
@@ -5530,13 +5536,13 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C230" t="n">
-        <v>28323.0</v>
+        <v>29426.0</v>
       </c>
       <c r="D230" t="n">
-        <v>1283324.0</v>
+        <v>1284948.0</v>
       </c>
     </row>
     <row r="231">
@@ -5544,13 +5550,13 @@
         <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C231" t="n">
-        <v>24535.0</v>
+        <v>24077.0</v>
       </c>
       <c r="D231" t="n">
-        <v>1307859.0</v>
+        <v>1309025.0</v>
       </c>
     </row>
     <row r="232">
@@ -5558,13 +5564,13 @@
         <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C232" t="n">
-        <v>26529.0</v>
+        <v>25844.0</v>
       </c>
       <c r="D232" t="n">
-        <v>1334388.0</v>
+        <v>1334869.0</v>
       </c>
     </row>
     <row r="233">
@@ -5572,13 +5578,13 @@
         <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C233" t="n">
-        <v>28365.0</v>
+        <v>29271.0</v>
       </c>
       <c r="D233" t="n">
-        <v>1362753.0</v>
+        <v>1364140.0</v>
       </c>
     </row>
     <row r="234">
@@ -5586,13 +5592,13 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C234" t="n">
-        <v>23944.0</v>
+        <v>23031.0</v>
       </c>
       <c r="D234" t="n">
-        <v>1386697.0</v>
+        <v>1387171.0</v>
       </c>
     </row>
     <row r="235">
@@ -5600,13 +5606,13 @@
         <v>236</v>
       </c>
       <c r="B235" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C235" t="n">
-        <v>25064.0</v>
+        <v>24958.0</v>
       </c>
       <c r="D235" t="n">
-        <v>1411761.0</v>
+        <v>1412129.0</v>
       </c>
     </row>
     <row r="236">
@@ -5614,13 +5620,13 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C236" t="n">
-        <v>28925.0</v>
+        <v>29850.0</v>
       </c>
       <c r="D236" t="n">
-        <v>1440686.0</v>
+        <v>1441979.0</v>
       </c>
     </row>
     <row r="237">
@@ -5628,13 +5634,13 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C237" t="n">
-        <v>27032.0</v>
+        <v>26585.0</v>
       </c>
       <c r="D237" t="n">
-        <v>1467718.0</v>
+        <v>1468564.0</v>
       </c>
     </row>
     <row r="238">
@@ -5642,13 +5648,13 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C238" t="n">
-        <v>31499.0</v>
+        <v>31021.0</v>
       </c>
       <c r="D238" t="n">
-        <v>1499217.0</v>
+        <v>1499585.0</v>
       </c>
     </row>
     <row r="239">
@@ -5656,13 +5662,13 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C239" t="n">
-        <v>29732.0</v>
+        <v>30809.0</v>
       </c>
       <c r="D239" t="n">
-        <v>1528949.0</v>
+        <v>1530394.0</v>
       </c>
     </row>
     <row r="240">
@@ -5670,13 +5676,13 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C240" t="n">
-        <v>28925.0</v>
+        <v>28355.0</v>
       </c>
       <c r="D240" t="n">
-        <v>1557874.0</v>
+        <v>1558749.0</v>
       </c>
     </row>
     <row r="241">
@@ -5684,13 +5690,13 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C241" t="n">
-        <v>36769.0</v>
+        <v>36209.0</v>
       </c>
       <c r="D241" t="n">
-        <v>1594643.0</v>
+        <v>1594958.0</v>
       </c>
     </row>
     <row r="242">
@@ -5698,13 +5704,13 @@
         <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C242" t="n">
-        <v>32635.0</v>
+        <v>33839.0</v>
       </c>
       <c r="D242" t="n">
-        <v>1627278.0</v>
+        <v>1628797.0</v>
       </c>
     </row>
     <row r="243">
@@ -5712,13 +5718,13 @@
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C243" t="n">
-        <v>30056.0</v>
+        <v>29295.0</v>
       </c>
       <c r="D243" t="n">
-        <v>1657334.0</v>
+        <v>1658092.0</v>
       </c>
     </row>
     <row r="244">
@@ -5726,13 +5732,13 @@
         <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C244" t="n">
-        <v>30588.0</v>
+        <v>30021.0</v>
       </c>
       <c r="D244" t="n">
-        <v>1687922.0</v>
+        <v>1688113.0</v>
       </c>
     </row>
     <row r="245">
@@ -5740,13 +5746,13 @@
         <v>246</v>
       </c>
       <c r="B245" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C245" t="n">
-        <v>31635.0</v>
+        <v>32784.0</v>
       </c>
       <c r="D245" t="n">
-        <v>1719557.0</v>
+        <v>1720897.0</v>
       </c>
     </row>
     <row r="246">
@@ -5754,13 +5760,13 @@
         <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C246" t="n">
-        <v>31133.0</v>
+        <v>30041.0</v>
       </c>
       <c r="D246" t="n">
-        <v>1750690.0</v>
+        <v>1750938.0</v>
       </c>
     </row>
     <row r="247">
@@ -5768,13 +5774,13 @@
         <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C247" t="n">
-        <v>28239.0</v>
+        <v>28015.0</v>
       </c>
       <c r="D247" t="n">
-        <v>1778929.0</v>
+        <v>1778953.0</v>
       </c>
     </row>
     <row r="248">
@@ -5782,13 +5788,13 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C248" t="n">
-        <v>32143.0</v>
+        <v>33065.0</v>
       </c>
       <c r="D248" t="n">
-        <v>1811072.0</v>
+        <v>1812018.0</v>
       </c>
     </row>
     <row r="249">
@@ -5796,13 +5802,13 @@
         <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C249" t="n">
-        <v>32886.0</v>
+        <v>32485.0</v>
       </c>
       <c r="D249" t="n">
-        <v>1843958.0</v>
+        <v>1844503.0</v>
       </c>
     </row>
     <row r="250">
@@ -5810,13 +5816,13 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C250" t="n">
-        <v>38951.0</v>
+        <v>38502.0</v>
       </c>
       <c r="D250" t="n">
-        <v>1882909.0</v>
+        <v>1883005.0</v>
       </c>
     </row>
     <row r="251">
@@ -5824,13 +5830,13 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C251" t="n">
-        <v>35419.0</v>
+        <v>36696.0</v>
       </c>
       <c r="D251" t="n">
-        <v>1918328.0</v>
+        <v>1919701.0</v>
       </c>
     </row>
     <row r="252">
@@ -5838,13 +5844,13 @@
         <v>253</v>
       </c>
       <c r="B252" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C252" t="n">
-        <v>34204.0</v>
+        <v>33733.0</v>
       </c>
       <c r="D252" t="n">
-        <v>1952532.0</v>
+        <v>1953434.0</v>
       </c>
     </row>
     <row r="253">
@@ -5852,13 +5858,13 @@
         <v>254</v>
       </c>
       <c r="B253" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C253" t="n">
-        <v>37781.0</v>
+        <v>37044.0</v>
       </c>
       <c r="D253" t="n">
-        <v>1990313.0</v>
+        <v>1990478.0</v>
       </c>
     </row>
     <row r="254">
@@ -5866,13 +5872,13 @@
         <v>255</v>
       </c>
       <c r="B254" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C254" t="n">
-        <v>37282.0</v>
+        <v>38352.0</v>
       </c>
       <c r="D254" t="n">
-        <v>2027595.0</v>
+        <v>2028830.0</v>
       </c>
     </row>
     <row r="255">
@@ -5880,13 +5886,13 @@
         <v>256</v>
       </c>
       <c r="B255" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C255" t="n">
-        <v>39326.0</v>
+        <v>38976.0</v>
       </c>
       <c r="D255" t="n">
-        <v>2066921.0</v>
+        <v>2067806.0</v>
       </c>
     </row>
     <row r="256">
@@ -5894,13 +5900,13 @@
         <v>257</v>
       </c>
       <c r="B256" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C256" t="n">
-        <v>37932.0</v>
+        <v>36755.0</v>
       </c>
       <c r="D256" t="n">
-        <v>2104853.0</v>
+        <v>2104561.0</v>
       </c>
     </row>
     <row r="257">
@@ -5908,13 +5914,13 @@
         <v>258</v>
       </c>
       <c r="B257" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C257" t="n">
-        <v>37566.0</v>
+        <v>39157.0</v>
       </c>
       <c r="D257" t="n">
-        <v>2142419.0</v>
+        <v>2143718.0</v>
       </c>
     </row>
     <row r="258">
@@ -5922,13 +5928,13 @@
         <v>259</v>
       </c>
       <c r="B258" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C258" t="n">
-        <v>38479.0</v>
+        <v>38185.0</v>
       </c>
       <c r="D258" t="n">
-        <v>2180898.0</v>
+        <v>2181903.0</v>
       </c>
     </row>
     <row r="259">
@@ -5936,13 +5942,13 @@
         <v>260</v>
       </c>
       <c r="B259" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C259" t="n">
-        <v>36206.0</v>
+        <v>34724.0</v>
       </c>
       <c r="D259" t="n">
-        <v>2217104.0</v>
+        <v>2216627.0</v>
       </c>
     </row>
     <row r="260">
@@ -5950,13 +5956,13 @@
         <v>261</v>
       </c>
       <c r="B260" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C260" t="n">
-        <v>41482.0</v>
+        <v>42836.0</v>
       </c>
       <c r="D260" t="n">
-        <v>2258586.0</v>
+        <v>2259463.0</v>
       </c>
     </row>
     <row r="261">
@@ -5964,13 +5970,13 @@
         <v>262</v>
       </c>
       <c r="B261" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C261" t="n">
-        <v>40518.0</v>
+        <v>40282.0</v>
       </c>
       <c r="D261" t="n">
-        <v>2299104.0</v>
+        <v>2299745.0</v>
       </c>
     </row>
     <row r="262">
@@ -5978,13 +5984,13 @@
         <v>263</v>
       </c>
       <c r="B262" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C262" t="n">
-        <v>49744.0</v>
+        <v>48315.0</v>
       </c>
       <c r="D262" t="n">
-        <v>2348848.0</v>
+        <v>2348060.0</v>
       </c>
     </row>
     <row r="263">
@@ -5992,13 +5998,13 @@
         <v>264</v>
       </c>
       <c r="B263" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C263" t="n">
-        <v>45022.0</v>
+        <v>46728.0</v>
       </c>
       <c r="D263" t="n">
-        <v>2393870.0</v>
+        <v>2394788.0</v>
       </c>
     </row>
     <row r="264">
@@ -6006,13 +6012,13 @@
         <v>265</v>
       </c>
       <c r="B264" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C264" t="n">
-        <v>45149.0</v>
+        <v>44163.0</v>
       </c>
       <c r="D264" t="n">
-        <v>2439019.0</v>
+        <v>2438951.0</v>
       </c>
     </row>
     <row r="265">
@@ -6020,13 +6026,13 @@
         <v>266</v>
       </c>
       <c r="B265" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C265" t="n">
-        <v>47406.0</v>
+        <v>45716.0</v>
       </c>
       <c r="D265" t="n">
-        <v>2486425.0</v>
+        <v>2484667.0</v>
       </c>
     </row>
     <row r="266">
@@ -6034,13 +6040,13 @@
         <v>267</v>
       </c>
       <c r="B266" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C266" t="n">
-        <v>45858.0</v>
+        <v>47876.0</v>
       </c>
       <c r="D266" t="n">
-        <v>2532283.0</v>
+        <v>2532543.0</v>
       </c>
     </row>
     <row r="267">
@@ -6048,13 +6054,13 @@
         <v>268</v>
       </c>
       <c r="B267" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C267" t="n">
-        <v>48372.0</v>
+        <v>46856.0</v>
       </c>
       <c r="D267" t="n">
-        <v>2580655.0</v>
+        <v>2579399.0</v>
       </c>
     </row>
     <row r="268">
@@ -6062,13 +6068,13 @@
         <v>269</v>
       </c>
       <c r="B268" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C268" t="n">
-        <v>44010.0</v>
+        <v>42370.0</v>
       </c>
       <c r="D268" t="n">
-        <v>2624665.0</v>
+        <v>2621769.0</v>
       </c>
     </row>
     <row r="269">
@@ -6076,13 +6082,13 @@
         <v>270</v>
       </c>
       <c r="B269" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C269" t="n">
-        <v>44342.0</v>
+        <v>46161.0</v>
       </c>
       <c r="D269" t="n">
-        <v>2669007.0</v>
+        <v>2667930.0</v>
       </c>
     </row>
     <row r="270">
@@ -6090,13 +6096,13 @@
         <v>271</v>
       </c>
       <c r="B270" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C270" t="n">
-        <v>43170.0</v>
+        <v>41434.0</v>
       </c>
       <c r="D270" t="n">
-        <v>2712177.0</v>
+        <v>2709364.0</v>
       </c>
     </row>
     <row r="271">
@@ -6104,13 +6110,13 @@
         <v>272</v>
       </c>
       <c r="B271" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C271" t="n">
-        <v>40134.0</v>
+        <v>38453.0</v>
       </c>
       <c r="D271" t="n">
-        <v>2752311.0</v>
+        <v>2747817.0</v>
       </c>
     </row>
     <row r="272">
@@ -6118,13 +6124,13 @@
         <v>273</v>
       </c>
       <c r="B272" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C272" t="n">
-        <v>45234.0</v>
+        <v>47098.0</v>
       </c>
       <c r="D272" t="n">
-        <v>2797545.0</v>
+        <v>2794915.0</v>
       </c>
     </row>
     <row r="273">
@@ -6132,13 +6138,13 @@
         <v>274</v>
       </c>
       <c r="B273" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C273" t="n">
-        <v>41284.0</v>
+        <v>39987.0</v>
       </c>
       <c r="D273" t="n">
-        <v>2838829.0</v>
+        <v>2834902.0</v>
       </c>
     </row>
     <row r="274">
@@ -6146,13 +6152,13 @@
         <v>275</v>
       </c>
       <c r="B274" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C274" t="n">
-        <v>45833.0</v>
+        <v>43222.0</v>
       </c>
       <c r="D274" t="n">
-        <v>2884662.0</v>
+        <v>2878124.0</v>
       </c>
     </row>
     <row r="275">
@@ -6160,13 +6166,13 @@
         <v>276</v>
       </c>
       <c r="B275" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C275" t="n">
-        <v>42479.0</v>
+        <v>43583.0</v>
       </c>
       <c r="D275" t="n">
-        <v>2927141.0</v>
+        <v>2921707.0</v>
       </c>
     </row>
     <row r="276">
@@ -6174,13 +6180,13 @@
         <v>277</v>
       </c>
       <c r="B276" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C276" t="n">
-        <v>47334.0</v>
+        <v>45025.0</v>
       </c>
       <c r="D276" t="n">
-        <v>2974475.0</v>
+        <v>2966732.0</v>
       </c>
     </row>
     <row r="277">
@@ -6188,13 +6194,13 @@
         <v>278</v>
       </c>
       <c r="B277" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C277" t="n">
-        <v>44342.0</v>
+        <v>40265.0</v>
       </c>
       <c r="D277" t="n">
-        <v>3018817.0</v>
+        <v>3006997.0</v>
       </c>
     </row>
     <row r="278">
@@ -6202,13 +6208,13 @@
         <v>279</v>
       </c>
       <c r="B278" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C278" t="n">
-        <v>46839.0</v>
+        <v>42840.0</v>
       </c>
       <c r="D278" t="n">
-        <v>3065656.0</v>
+        <v>3049837.0</v>
       </c>
     </row>
     <row r="279">
@@ -6216,13 +6222,13 @@
         <v>280</v>
       </c>
       <c r="B279" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C279" t="n">
-        <v>36076.0</v>
+        <v>31263.0</v>
       </c>
       <c r="D279" t="n">
-        <v>3101732.0</v>
+        <v>3081100.0</v>
       </c>
     </row>
     <row r="280">
@@ -6230,13 +6236,13 @@
         <v>281</v>
       </c>
       <c r="B280" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C280" t="n">
-        <v>37727.0</v>
+        <v>45342.0</v>
       </c>
       <c r="D280" t="n">
-        <v>3139459.0</v>
+        <v>3126442.0</v>
       </c>
     </row>
     <row r="281">
@@ -6244,13 +6250,13 @@
         <v>282</v>
       </c>
       <c r="B281" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C281" t="n">
-        <v>55277.0</v>
+        <v>61254.0</v>
       </c>
       <c r="D281" t="n">
-        <v>3194736.0</v>
+        <v>3187696.0</v>
       </c>
     </row>
     <row r="282">
@@ -6258,13 +6264,13 @@
         <v>283</v>
       </c>
       <c r="B282" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C282" t="n">
-        <v>56437.0</v>
+        <v>60426.0</v>
       </c>
       <c r="D282" t="n">
-        <v>3251173.0</v>
+        <v>3248122.0</v>
       </c>
     </row>
     <row r="283">
@@ -6272,13 +6278,13 @@
         <v>284</v>
       </c>
       <c r="B283" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C283" t="n">
-        <v>48697.0</v>
+        <v>51764.0</v>
       </c>
       <c r="D283" t="n">
-        <v>3299870.0</v>
+        <v>3299886.0</v>
       </c>
     </row>
     <row r="284">
@@ -6286,13 +6292,13 @@
         <v>285</v>
       </c>
       <c r="B284" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C284" t="n">
         <v>83990.0</v>
       </c>
       <c r="D284" t="n">
-        <v>3383860.0</v>
+        <v>3383876.0</v>
       </c>
     </row>
     <row r="285">
@@ -6300,13 +6306,13 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C285" t="n">
         <v>56647.0</v>
       </c>
       <c r="D285" t="n">
-        <v>3440507.0</v>
+        <v>3440523.0</v>
       </c>
     </row>
     <row r="286">
@@ -6314,13 +6320,13 @@
         <v>287</v>
       </c>
       <c r="B286" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C286" t="n">
         <v>65960.0</v>
       </c>
       <c r="D286" t="n">
-        <v>3506467.0</v>
+        <v>3506483.0</v>
       </c>
     </row>
     <row r="287">
@@ -6328,13 +6334,13 @@
         <v>288</v>
       </c>
       <c r="B287" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C287" t="n">
         <v>53283.0</v>
       </c>
       <c r="D287" t="n">
-        <v>3559750.0</v>
+        <v>3559766.0</v>
       </c>
     </row>
     <row r="288">
@@ -6342,13 +6348,13 @@
         <v>289</v>
       </c>
       <c r="B288" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C288" t="n">
         <v>57024.0</v>
       </c>
       <c r="D288" t="n">
-        <v>3616774.0</v>
+        <v>3616790.0</v>
       </c>
     </row>
     <row r="289">
@@ -6356,13 +6362,13 @@
         <v>290</v>
       </c>
       <c r="B289" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C289" t="n">
         <v>52896.0</v>
       </c>
       <c r="D289" t="n">
-        <v>3669670.0</v>
+        <v>3669686.0</v>
       </c>
     </row>
     <row r="290">
@@ -6370,13 +6376,13 @@
         <v>291</v>
       </c>
       <c r="B290" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C290" t="n">
         <v>60034.0</v>
       </c>
       <c r="D290" t="n">
-        <v>3729704.0</v>
+        <v>3729720.0</v>
       </c>
     </row>
     <row r="291">
@@ -6384,13 +6390,13 @@
         <v>292</v>
       </c>
       <c r="B291" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C291" t="n">
         <v>58271.0</v>
       </c>
       <c r="D291" t="n">
-        <v>3787975.0</v>
+        <v>3787991.0</v>
       </c>
     </row>
     <row r="292">
@@ -6398,13 +6404,13 @@
         <v>293</v>
       </c>
       <c r="B292" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C292" t="n">
         <v>61524.0</v>
       </c>
       <c r="D292" t="n">
-        <v>3849499.0</v>
+        <v>3849515.0</v>
       </c>
     </row>
     <row r="293">
@@ -6412,13 +6418,13 @@
         <v>294</v>
       </c>
       <c r="B293" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C293" t="n">
         <v>91885.0</v>
       </c>
       <c r="D293" t="n">
-        <v>3941384.0</v>
+        <v>3941400.0</v>
       </c>
     </row>
     <row r="294">
@@ -6426,13 +6432,13 @@
         <v>295</v>
       </c>
       <c r="B294" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C294" t="n">
         <v>59813.0</v>
       </c>
       <c r="D294" t="n">
-        <v>4001197.0</v>
+        <v>4001213.0</v>
       </c>
     </row>
     <row r="295">
@@ -6440,13 +6446,13 @@
         <v>296</v>
       </c>
       <c r="B295" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C295" t="n">
         <v>69088.0</v>
       </c>
       <c r="D295" t="n">
-        <v>4070285.0</v>
+        <v>4070301.0</v>
       </c>
     </row>
     <row r="296">
@@ -6454,13 +6460,13 @@
         <v>297</v>
       </c>
       <c r="B296" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C296" t="n">
         <v>58398.0</v>
       </c>
       <c r="D296" t="n">
-        <v>4128683.0</v>
+        <v>4128699.0</v>
       </c>
     </row>
     <row r="297">
@@ -6468,13 +6474,13 @@
         <v>298</v>
       </c>
       <c r="B297" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C297" t="n">
         <v>69166.0</v>
       </c>
       <c r="D297" t="n">
-        <v>4197849.0</v>
+        <v>4197865.0</v>
       </c>
     </row>
     <row r="298">
@@ -6482,13 +6488,13 @@
         <v>299</v>
       </c>
       <c r="B298" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C298" t="n">
         <v>106973.0</v>
       </c>
       <c r="D298" t="n">
-        <v>4304822.0</v>
+        <v>4304838.0</v>
       </c>
     </row>
     <row r="299">
@@ -6496,13 +6502,13 @@
         <v>300</v>
       </c>
       <c r="B299" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C299" t="n">
         <v>62742.0</v>
       </c>
       <c r="D299" t="n">
-        <v>4367564.0</v>
+        <v>4367580.0</v>
       </c>
     </row>
     <row r="300">
@@ -6510,13 +6516,13 @@
         <v>301</v>
       </c>
       <c r="B300" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C300" t="n">
         <v>63705.0</v>
       </c>
       <c r="D300" t="n">
-        <v>4431269.0</v>
+        <v>4431285.0</v>
       </c>
     </row>
     <row r="301">
@@ -6524,13 +6530,13 @@
         <v>302</v>
       </c>
       <c r="B301" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C301" t="n">
         <v>58773.0</v>
       </c>
       <c r="D301" t="n">
-        <v>4490042.0</v>
+        <v>4490058.0</v>
       </c>
     </row>
     <row r="302">
@@ -6538,13 +6544,13 @@
         <v>303</v>
       </c>
       <c r="B302" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C302" t="n">
         <v>74156.0</v>
       </c>
       <c r="D302" t="n">
-        <v>4564198.0</v>
+        <v>4564214.0</v>
       </c>
     </row>
     <row r="303">
@@ -6552,13 +6558,13 @@
         <v>304</v>
       </c>
       <c r="B303" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C303" t="n">
         <v>60469.0</v>
       </c>
       <c r="D303" t="n">
-        <v>4624667.0</v>
+        <v>4624683.0</v>
       </c>
     </row>
     <row r="304">
@@ -6566,13 +6572,13 @@
         <v>305</v>
       </c>
       <c r="B304" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C304" t="n">
         <v>63109.0</v>
       </c>
       <c r="D304" t="n">
-        <v>4687776.0</v>
+        <v>4687792.0</v>
       </c>
     </row>
     <row r="305">
@@ -6580,13 +6586,13 @@
         <v>306</v>
       </c>
       <c r="B305" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C305" t="n">
         <v>69754.0</v>
       </c>
       <c r="D305" t="n">
-        <v>4757530.0</v>
+        <v>4757546.0</v>
       </c>
     </row>
     <row r="306">
@@ -6594,13 +6600,13 @@
         <v>307</v>
       </c>
       <c r="B306" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C306" t="n">
         <v>55577.0</v>
       </c>
       <c r="D306" t="n">
-        <v>4813107.0</v>
+        <v>4813123.0</v>
       </c>
     </row>
     <row r="307">
@@ -6608,13 +6614,13 @@
         <v>308</v>
       </c>
       <c r="B307" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C307" t="n">
         <v>70349.0</v>
       </c>
       <c r="D307" t="n">
-        <v>4883456.0</v>
+        <v>4883472.0</v>
       </c>
     </row>
     <row r="308">
@@ -6622,13 +6628,13 @@
         <v>309</v>
       </c>
       <c r="B308" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C308" t="n">
         <v>66411.0</v>
       </c>
       <c r="D308" t="n">
-        <v>4949867.0</v>
+        <v>4949883.0</v>
       </c>
     </row>
     <row r="309">
@@ -6636,13 +6642,13 @@
         <v>310</v>
       </c>
       <c r="B309" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C309" t="n">
         <v>143231.0</v>
       </c>
       <c r="D309" t="n">
-        <v>5093098.0</v>
+        <v>5093114.0</v>
       </c>
     </row>
     <row r="310">
@@ -6650,13 +6656,13 @@
         <v>311</v>
       </c>
       <c r="B310" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C310" t="n">
         <v>89203.0</v>
       </c>
       <c r="D310" t="n">
-        <v>5182301.0</v>
+        <v>5182317.0</v>
       </c>
     </row>
     <row r="311">
@@ -6664,13 +6670,13 @@
         <v>312</v>
       </c>
       <c r="B311" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C311" t="n">
         <v>76486.0</v>
       </c>
       <c r="D311" t="n">
-        <v>5258787.0</v>
+        <v>5258803.0</v>
       </c>
     </row>
     <row r="312">
@@ -6678,13 +6684,13 @@
         <v>313</v>
       </c>
       <c r="B312" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C312" t="n">
         <v>108834.0</v>
       </c>
       <c r="D312" t="n">
-        <v>5367621.0</v>
+        <v>5367637.0</v>
       </c>
     </row>
     <row r="313">
@@ -6692,13 +6698,13 @@
         <v>314</v>
       </c>
       <c r="B313" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C313" t="n">
         <v>80316.0</v>
       </c>
       <c r="D313" t="n">
-        <v>5447937.0</v>
+        <v>5447953.0</v>
       </c>
     </row>
     <row r="314">
@@ -6706,13 +6712,13 @@
         <v>315</v>
       </c>
       <c r="B314" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C314" t="n">
         <v>98519.0</v>
       </c>
       <c r="D314" t="n">
-        <v>5546456.0</v>
+        <v>5546472.0</v>
       </c>
     </row>
     <row r="315">
@@ -6720,13 +6726,13 @@
         <v>316</v>
       </c>
       <c r="B315" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C315" t="n">
         <v>137486.0</v>
       </c>
       <c r="D315" t="n">
-        <v>5683942.0</v>
+        <v>5683958.0</v>
       </c>
     </row>
     <row r="316">
@@ -6734,13 +6740,13 @@
         <v>317</v>
       </c>
       <c r="B316" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C316" t="n">
         <v>138170.0</v>
       </c>
       <c r="D316" t="n">
-        <v>5822112.0</v>
+        <v>5822128.0</v>
       </c>
     </row>
     <row r="317">
@@ -6748,13 +6754,13 @@
         <v>318</v>
       </c>
       <c r="B317" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C317" t="n">
         <v>97650.0</v>
       </c>
       <c r="D317" t="n">
-        <v>5919762.0</v>
+        <v>5919778.0</v>
       </c>
     </row>
     <row r="318">
@@ -6762,13 +6768,13 @@
         <v>319</v>
       </c>
       <c r="B318" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C318" t="n">
         <v>99007.0</v>
       </c>
       <c r="D318" t="n">
-        <v>6018769.0</v>
+        <v>6018785.0</v>
       </c>
     </row>
     <row r="319">
@@ -6776,13 +6782,13 @@
         <v>320</v>
       </c>
       <c r="B319" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C319" t="n">
         <v>91192.0</v>
       </c>
       <c r="D319" t="n">
-        <v>6109961.0</v>
+        <v>6109977.0</v>
       </c>
     </row>
     <row r="320">
@@ -6790,13 +6796,13 @@
         <v>321</v>
       </c>
       <c r="B320" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C320" t="n">
         <v>92794.0</v>
       </c>
       <c r="D320" t="n">
-        <v>6202755.0</v>
+        <v>6202771.0</v>
       </c>
     </row>
     <row r="321">
@@ -6804,13 +6810,13 @@
         <v>322</v>
       </c>
       <c r="B321" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C321" t="n">
         <v>149959.0</v>
       </c>
       <c r="D321" t="n">
-        <v>6352714.0</v>
+        <v>6352730.0</v>
       </c>
     </row>
     <row r="322">
@@ -6818,13 +6824,13 @@
         <v>323</v>
       </c>
       <c r="B322" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C322" t="n">
         <v>94215.0</v>
       </c>
       <c r="D322" t="n">
-        <v>6446929.0</v>
+        <v>6446945.0</v>
       </c>
     </row>
     <row r="323">
@@ -6832,13 +6838,13 @@
         <v>324</v>
       </c>
       <c r="B323" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C323" t="n">
         <v>89266.0</v>
       </c>
       <c r="D323" t="n">
-        <v>6536195.0</v>
+        <v>6536211.0</v>
       </c>
     </row>
     <row r="324">
@@ -6846,13 +6852,13 @@
         <v>325</v>
       </c>
       <c r="B324" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C324" t="n">
         <v>94279.0</v>
       </c>
       <c r="D324" t="n">
-        <v>6630474.0</v>
+        <v>6630490.0</v>
       </c>
     </row>
     <row r="325">
@@ -6860,13 +6866,13 @@
         <v>326</v>
       </c>
       <c r="B325" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C325" t="n">
         <v>87933.0</v>
       </c>
       <c r="D325" t="n">
-        <v>6718407.0</v>
+        <v>6718423.0</v>
       </c>
     </row>
     <row r="326">
@@ -6874,13 +6880,13 @@
         <v>327</v>
       </c>
       <c r="B326" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C326" t="n">
         <v>85396.0</v>
       </c>
       <c r="D326" t="n">
-        <v>6803803.0</v>
+        <v>6803819.0</v>
       </c>
     </row>
     <row r="327">
@@ -6888,13 +6894,13 @@
         <v>328</v>
       </c>
       <c r="B327" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C327" t="n">
         <v>93491.0</v>
       </c>
       <c r="D327" t="n">
-        <v>6897294.0</v>
+        <v>6897310.0</v>
       </c>
     </row>
     <row r="328">
@@ -6902,13 +6908,13 @@
         <v>329</v>
       </c>
       <c r="B328" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C328" t="n">
         <v>93354.0</v>
       </c>
       <c r="D328" t="n">
-        <v>6990648.0</v>
+        <v>6990664.0</v>
       </c>
     </row>
     <row r="329">
@@ -6916,13 +6922,13 @@
         <v>330</v>
       </c>
       <c r="B329" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C329" t="n">
         <v>93321.0</v>
       </c>
       <c r="D329" t="n">
-        <v>7083969.0</v>
+        <v>7083985.0</v>
       </c>
     </row>
     <row r="330">
@@ -6930,13 +6936,13 @@
         <v>331</v>
       </c>
       <c r="B330" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C330" t="n">
         <v>88937.0</v>
       </c>
       <c r="D330" t="n">
-        <v>7172906.0</v>
+        <v>7172922.0</v>
       </c>
     </row>
     <row r="331">
@@ -6944,13 +6950,13 @@
         <v>332</v>
       </c>
       <c r="B331" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C331" t="n">
         <v>87787.0</v>
       </c>
       <c r="D331" t="n">
-        <v>7260693.0</v>
+        <v>7260709.0</v>
       </c>
     </row>
     <row r="332">
@@ -6958,13 +6964,13 @@
         <v>333</v>
       </c>
       <c r="B332" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C332" t="n">
         <v>90731.0</v>
       </c>
       <c r="D332" t="n">
-        <v>7351424.0</v>
+        <v>7351440.0</v>
       </c>
     </row>
     <row r="333">
@@ -6972,13 +6978,13 @@
         <v>334</v>
       </c>
       <c r="B333" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C333" t="n">
         <v>104887.0</v>
       </c>
       <c r="D333" t="n">
-        <v>7456311.0</v>
+        <v>7456327.0</v>
       </c>
     </row>
     <row r="334">
@@ -6986,13 +6992,13 @@
         <v>335</v>
       </c>
       <c r="B334" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C334" t="n">
         <v>111256.0</v>
       </c>
       <c r="D334" t="n">
-        <v>7567567.0</v>
+        <v>7567583.0</v>
       </c>
     </row>
     <row r="335">
@@ -7000,13 +7006,13 @@
         <v>336</v>
       </c>
       <c r="B335" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C335" t="n">
         <v>96735.0</v>
       </c>
       <c r="D335" t="n">
-        <v>7664302.0</v>
+        <v>7664318.0</v>
       </c>
     </row>
     <row r="336">
@@ -7014,13 +7020,13 @@
         <v>337</v>
       </c>
       <c r="B336" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C336" t="n">
         <v>104950.0</v>
       </c>
       <c r="D336" t="n">
-        <v>7769252.0</v>
+        <v>7769268.0</v>
       </c>
     </row>
     <row r="337">
@@ -7028,13 +7034,13 @@
         <v>338</v>
       </c>
       <c r="B337" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C337" t="n">
         <v>100385.0</v>
       </c>
       <c r="D337" t="n">
-        <v>7869637.0</v>
+        <v>7869653.0</v>
       </c>
     </row>
     <row r="338">
@@ -7042,13 +7048,13 @@
         <v>339</v>
       </c>
       <c r="B338" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C338" t="n">
         <v>104540.0</v>
       </c>
       <c r="D338" t="n">
-        <v>7974177.0</v>
+        <v>7974193.0</v>
       </c>
     </row>
     <row r="339">
@@ -7056,13 +7062,13 @@
         <v>340</v>
       </c>
       <c r="B339" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C339" t="n">
         <v>105919.0</v>
       </c>
       <c r="D339" t="n">
-        <v>8080096.0</v>
+        <v>8080112.0</v>
       </c>
     </row>
     <row r="340">
@@ -7070,13 +7076,13 @@
         <v>341</v>
       </c>
       <c r="B340" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C340" t="n">
         <v>98413.0</v>
       </c>
       <c r="D340" t="n">
-        <v>8178509.0</v>
+        <v>8178525.0</v>
       </c>
     </row>
     <row r="341">
@@ -7084,13 +7090,13 @@
         <v>342</v>
       </c>
       <c r="B341" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C341" t="n">
         <v>111680.0</v>
       </c>
       <c r="D341" t="n">
-        <v>8290189.0</v>
+        <v>8290205.0</v>
       </c>
     </row>
     <row r="342">
@@ -7098,13 +7104,13 @@
         <v>343</v>
       </c>
       <c r="B342" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C342" t="n">
         <v>91165.0</v>
       </c>
       <c r="D342" t="n">
-        <v>8381354.0</v>
+        <v>8381370.0</v>
       </c>
     </row>
     <row r="343">
@@ -7112,13 +7118,13 @@
         <v>344</v>
       </c>
       <c r="B343" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C343" t="n">
         <v>92875.0</v>
       </c>
       <c r="D343" t="n">
-        <v>8474229.0</v>
+        <v>8474245.0</v>
       </c>
     </row>
     <row r="344">
@@ -7126,13 +7132,13 @@
         <v>345</v>
       </c>
       <c r="B344" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C344" t="n">
         <v>138621.0</v>
       </c>
       <c r="D344" t="n">
-        <v>8612850.0</v>
+        <v>8612866.0</v>
       </c>
     </row>
     <row r="345">
@@ -7140,13 +7146,13 @@
         <v>346</v>
       </c>
       <c r="B345" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C345" t="n">
         <v>106118.0</v>
       </c>
       <c r="D345" t="n">
-        <v>8718968.0</v>
+        <v>8718984.0</v>
       </c>
     </row>
     <row r="346">
@@ -7154,13 +7160,13 @@
         <v>347</v>
       </c>
       <c r="B346" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C346" t="n">
         <v>114208.0</v>
       </c>
       <c r="D346" t="n">
-        <v>8833176.0</v>
+        <v>8833192.0</v>
       </c>
     </row>
     <row r="347">
@@ -7168,13 +7174,13 @@
         <v>348</v>
       </c>
       <c r="B347" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C347" t="n">
         <v>119484.0</v>
       </c>
       <c r="D347" t="n">
-        <v>8952660.0</v>
+        <v>8952676.0</v>
       </c>
     </row>
     <row r="348">
@@ -7182,13 +7188,13 @@
         <v>349</v>
       </c>
       <c r="B348" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C348" t="n">
         <v>131244.0</v>
       </c>
       <c r="D348" t="n">
-        <v>9083904.0</v>
+        <v>9083920.0</v>
       </c>
     </row>
     <row r="349">
@@ -7196,13 +7202,13 @@
         <v>350</v>
       </c>
       <c r="B349" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C349" t="n">
         <v>131468.0</v>
       </c>
       <c r="D349" t="n">
-        <v>9215372.0</v>
+        <v>9215388.0</v>
       </c>
     </row>
     <row r="350">
@@ -7210,13 +7216,13 @@
         <v>351</v>
       </c>
       <c r="B350" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C350" t="n">
         <v>132926.0</v>
       </c>
       <c r="D350" t="n">
-        <v>9348298.0</v>
+        <v>9348314.0</v>
       </c>
     </row>
     <row r="351">
@@ -7224,13 +7230,13 @@
         <v>352</v>
       </c>
       <c r="B351" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C351" t="n">
         <v>111903.0</v>
       </c>
       <c r="D351" t="n">
-        <v>9460201.0</v>
+        <v>9460217.0</v>
       </c>
     </row>
     <row r="352">
@@ -7238,13 +7244,13 @@
         <v>353</v>
       </c>
       <c r="B352" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C352" t="n">
         <v>109704.0</v>
       </c>
       <c r="D352" t="n">
-        <v>9569905.0</v>
+        <v>9569921.0</v>
       </c>
     </row>
     <row r="353">
@@ -7252,13 +7258,13 @@
         <v>354</v>
       </c>
       <c r="B353" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C353" t="n">
         <v>127497.0</v>
       </c>
       <c r="D353" t="n">
-        <v>9697402.0</v>
+        <v>9697418.0</v>
       </c>
     </row>
     <row r="354">
@@ -7266,13 +7272,13 @@
         <v>355</v>
       </c>
       <c r="B354" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C354" t="n">
         <v>107914.0</v>
       </c>
       <c r="D354" t="n">
-        <v>9805316.0</v>
+        <v>9805332.0</v>
       </c>
     </row>
     <row r="355">
@@ -7280,13 +7286,13 @@
         <v>356</v>
       </c>
       <c r="B355" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C355" t="n">
         <v>104547.0</v>
       </c>
       <c r="D355" t="n">
-        <v>9909863.0</v>
+        <v>9909879.0</v>
       </c>
     </row>
     <row r="356">
@@ -7294,13 +7300,13 @@
         <v>357</v>
       </c>
       <c r="B356" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C356" t="n">
         <v>121246.0</v>
       </c>
       <c r="D356" t="n">
-        <v>1.0031109E7</v>
+        <v>1.0031125E7</v>
       </c>
     </row>
     <row r="357">
@@ -7308,13 +7314,13 @@
         <v>358</v>
       </c>
       <c r="B357" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C357" t="n">
         <v>119663.0</v>
       </c>
       <c r="D357" t="n">
-        <v>1.0150772E7</v>
+        <v>1.0150788E7</v>
       </c>
     </row>
     <row r="358">
@@ -7322,13 +7328,13 @@
         <v>359</v>
       </c>
       <c r="B358" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C358" t="n">
         <v>119177.0</v>
       </c>
       <c r="D358" t="n">
-        <v>1.0269949E7</v>
+        <v>1.0269965E7</v>
       </c>
     </row>
     <row r="359">
@@ -7336,13 +7342,13 @@
         <v>360</v>
       </c>
       <c r="B359" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C359" t="n">
         <v>123845.0</v>
       </c>
       <c r="D359" t="n">
-        <v>1.0393794E7</v>
+        <v>1.039381E7</v>
       </c>
     </row>
     <row r="360">
@@ -7350,13 +7356,13 @@
         <v>361</v>
       </c>
       <c r="B360" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C360" t="n">
         <v>124546.0</v>
       </c>
       <c r="D360" t="n">
-        <v>1.051834E7</v>
+        <v>1.0518356E7</v>
       </c>
     </row>
     <row r="361">
@@ -7364,13 +7370,13 @@
         <v>362</v>
       </c>
       <c r="B361" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C361" t="n">
         <v>126104.0</v>
       </c>
       <c r="D361" t="n">
-        <v>1.0644444E7</v>
+        <v>1.064446E7</v>
       </c>
     </row>
     <row r="362">
@@ -7378,13 +7384,13 @@
         <v>363</v>
       </c>
       <c r="B362" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C362" t="n">
         <v>161192.0</v>
       </c>
       <c r="D362" t="n">
-        <v>1.0805636E7</v>
+        <v>1.0805652E7</v>
       </c>
     </row>
     <row r="363">
@@ -7392,13 +7398,13 @@
         <v>364</v>
       </c>
       <c r="B363" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C363" t="n">
         <v>116663.0</v>
       </c>
       <c r="D363" t="n">
-        <v>1.0922299E7</v>
+        <v>1.0922315E7</v>
       </c>
     </row>
     <row r="364">
@@ -7406,13 +7412,13 @@
         <v>365</v>
       </c>
       <c r="B364" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C364" t="n">
         <v>116812.0</v>
       </c>
       <c r="D364" t="n">
-        <v>1.1039111E7</v>
+        <v>1.1039127E7</v>
       </c>
     </row>
     <row r="365">
@@ -7420,13 +7426,13 @@
         <v>366</v>
       </c>
       <c r="B365" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C365" t="n">
         <v>113762.0</v>
       </c>
       <c r="D365" t="n">
-        <v>1.1152873E7</v>
+        <v>1.1152889E7</v>
       </c>
     </row>
     <row r="366">
@@ -7434,13 +7440,13 @@
         <v>367</v>
       </c>
       <c r="B366" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C366" t="n">
         <v>112719.0</v>
       </c>
       <c r="D366" t="n">
-        <v>1.1265592E7</v>
+        <v>1.1265608E7</v>
       </c>
     </row>
     <row r="367">
@@ -7448,13 +7454,13 @@
         <v>368</v>
       </c>
       <c r="B367" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C367" t="n">
         <v>136056.0</v>
       </c>
       <c r="D367" t="n">
-        <v>1.1401648E7</v>
+        <v>1.1401664E7</v>
       </c>
     </row>
     <row r="368">
@@ -7462,13 +7468,13 @@
         <v>369</v>
       </c>
       <c r="B368" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C368" t="n">
         <v>147170.0</v>
       </c>
       <c r="D368" t="n">
-        <v>1.1548818E7</v>
+        <v>1.1548834E7</v>
       </c>
     </row>
     <row r="369">
@@ -7476,13 +7482,13 @@
         <v>370</v>
       </c>
       <c r="B369" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C369" t="n">
         <v>133071.0</v>
       </c>
       <c r="D369" t="n">
-        <v>1.1681889E7</v>
+        <v>1.1681905E7</v>
       </c>
     </row>
     <row r="370">
@@ -7490,13 +7496,13 @@
         <v>371</v>
       </c>
       <c r="B370" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C370" t="n">
         <v>142741.0</v>
       </c>
       <c r="D370" t="n">
-        <v>1.182463E7</v>
+        <v>1.1824646E7</v>
       </c>
     </row>
     <row r="371">
@@ -7504,13 +7510,13 @@
         <v>372</v>
       </c>
       <c r="B371" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C371" t="n">
         <v>138390.0</v>
       </c>
       <c r="D371" t="n">
-        <v>1.196302E7</v>
+        <v>1.1963036E7</v>
       </c>
     </row>
     <row r="372">
@@ -7518,13 +7524,13 @@
         <v>373</v>
       </c>
       <c r="B372" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C372" t="n">
         <v>136015.0</v>
       </c>
       <c r="D372" t="n">
-        <v>1.2099035E7</v>
+        <v>1.2099051E7</v>
       </c>
     </row>
     <row r="373">
@@ -7532,13 +7538,13 @@
         <v>374</v>
       </c>
       <c r="B373" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C373" t="n">
         <v>154820.0</v>
       </c>
       <c r="D373" t="n">
-        <v>1.2253855E7</v>
+        <v>1.2253871E7</v>
       </c>
     </row>
     <row r="374">
@@ -7546,13 +7552,13 @@
         <v>375</v>
       </c>
       <c r="B374" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C374" t="n">
         <v>0.0</v>
       </c>
       <c r="D374" t="n">
-        <v>1.2253855E7</v>
+        <v>1.2253871E7</v>
       </c>
     </row>
     <row r="375">
@@ -7560,13 +7566,13 @@
         <v>376</v>
       </c>
       <c r="B375" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C375" t="n">
         <v>0.0</v>
       </c>
       <c r="D375" t="n">
-        <v>1.2253855E7</v>
+        <v>1.2253871E7</v>
       </c>
     </row>
     <row r="376">
@@ -7574,13 +7580,27 @@
         <v>377</v>
       </c>
       <c r="B376" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C376" t="n">
         <v>0.0</v>
       </c>
       <c r="D376" t="n">
-        <v>1.2253855E7</v>
+        <v>1.2253871E7</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>378</v>
+      </c>
+      <c r="B377" t="s">
+        <v>754</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D377" t="n">
+        <v>1.2253872E7</v>
       </c>
     </row>
   </sheetData>
